--- a/plantillas/nivelacion.xlsx
+++ b/plantillas/nivelacion.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Nivelacion gruesa del Jardin </t>
   </si>
   <si>
-    <t xml:space="preserve">Camiones de tierra negra con. Mano de obra</t>
+    <t xml:space="preserve">Camiones de tierra negra con mano de obra</t>
   </si>
   <si>
     <t xml:space="preserve">Camiones de Relleno</t>
@@ -138,6 +138,7 @@
         <sz val="20"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -147,6 +148,7 @@
         <sz val="20"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ing. Segundo Valencia</t>
     </r>
@@ -171,18 +173,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="[$$-2C0A]\ #,##0.00;[$$-2C0A]&quot; -&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="[$$-2C0A]\ #,##0.00;[$$-2C0A]&quot; -&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -204,12 +208,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial Black"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -217,11 +223,13 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -229,6 +237,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -236,23 +245,27 @@
       <color rgb="FF000090"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF003366"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -261,17 +274,20 @@
       <color rgb="FF003366"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -279,6 +295,7 @@
       <color rgb="FF0000D4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -286,6 +303,7 @@
       <color rgb="FF0000D4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -528,10 +546,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -602,7 +624,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,7 +688,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="12" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="12" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,7 +732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="4" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -834,9 +856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>760680</xdr:colOff>
+      <xdr:colOff>760320</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>1004040</xdr:rowOff>
+      <xdr:rowOff>1003680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -850,7 +872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="15749640"/>
-          <a:ext cx="3002400" cy="992160"/>
+          <a:ext cx="3002040" cy="991800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,9 +893,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1293480</xdr:colOff>
+      <xdr:colOff>1293120</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>1015920</xdr:rowOff>
+      <xdr:rowOff>1015560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -886,8 +908,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8344080" y="15749640"/>
-          <a:ext cx="3829320" cy="1004040"/>
+          <a:off x="8343360" y="15749640"/>
+          <a:ext cx="3828600" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5837760</xdr:colOff>
+      <xdr:colOff>5837400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>1015920</xdr:rowOff>
+      <xdr:rowOff>1015560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,7 +946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4447800" y="15749640"/>
-          <a:ext cx="3631680" cy="1004040"/>
+          <a:ext cx="3631320" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -946,16 +968,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ512"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="61" zoomScaleNormal="61" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
@@ -1930,18 +1952,14 @@
     </row>
     <row r="12" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="n">
-        <v>160000</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="15" t="n">
         <f aca="false">B12*D12</f>
-        <v>320000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2025,18 +2043,14 @@
     </row>
     <row r="13" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>85000</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="15" t="n">
         <f aca="false">B13*D13</f>
-        <v>255000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2120,18 +2134,14 @@
     </row>
     <row r="14" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="13" t="n">
-        <v>5</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="n">
-        <v>70000</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="15" t="n">
         <f aca="false">B14*D14</f>
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2303,16 +2313,12 @@
     </row>
     <row r="16" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="13" t="n">
-        <v>100</v>
-      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="14" t="n">
-        <v>7000</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="15" t="n">
         <f aca="false">B16*D16</f>
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2397,17 +2403,16 @@
     <row r="17" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="17" t="n">
-        <v>100</v>
+        <f aca="false">B16</f>
+        <v>0</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="19" t="n">
-        <v>1000</v>
-      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="15" t="n">
         <f aca="false">B17*D17</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2756,7 +2761,7 @@
       </c>
       <c r="E21" s="29" t="n">
         <f aca="false">SUM(E12:E20)</f>
-        <v>1725000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
